--- a/010_設計書/040_テーブル定義書/テーブル定義書.xlsx
+++ b/010_設計書/040_テーブル定義書/テーブル定義書.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\gw\tunag-app-documents\010_設計書\040_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C7B9D-8B3B-4A91-8A91-1582188FC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4437591D-5E54-4141-A6A7-CD4238C8352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="0" windowWidth="24645" windowHeight="15480" activeTab="4" xr2:uid="{7C06B2B9-F819-4B4C-AD73-7D03A77EEA76}"/>
+    <workbookView xWindow="1185" yWindow="0" windowWidth="24645" windowHeight="15480" activeTab="1" xr2:uid="{7C06B2B9-F819-4B4C-AD73-7D03A77EEA76}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="6" r:id="rId1"/>
-    <sheet name="テーブル名1" sheetId="3" r:id="rId2"/>
-    <sheet name="テーブル名2" sheetId="7" r:id="rId3"/>
-    <sheet name="テーブル名3" sheetId="8" r:id="rId4"/>
-    <sheet name="テーブル名4" sheetId="9" r:id="rId5"/>
-    <sheet name="ヘッダ" sheetId="1" r:id="rId6"/>
+    <sheet name="t_talk" sheetId="7" r:id="rId2"/>
+    <sheet name="テーブル名3" sheetId="8" r:id="rId3"/>
+    <sheet name="テーブル名4" sheetId="9" r:id="rId4"/>
+    <sheet name="ヘッダ" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="タイトル">ヘッダ!$P$2</definedName>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>案件番号</t>
     <rPh sb="0" eb="2">
@@ -233,10 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カラム名(論理)</t>
     <rPh sb="3" eb="4">
       <t>ナ</t>
@@ -323,6 +318,74 @@
   </si>
   <si>
     <t>004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>auto increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dt_talked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話年月日</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyy/mm/dd hh:mm:ss.eee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID(送信者)</t>
+    <rPh sb="6" eb="9">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sent_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rcived_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID(受信者)</t>
+    <rPh sb="6" eb="9">
+      <t>ジュシンシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2050,11 +2113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755B73AD-E45A-4918-8B78-88C3E9540547}">
-  <dimension ref="A1:AO27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D5A40F-76FF-4A9B-949C-77007F835516}">
+  <dimension ref="A1:AO28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2230,7 +2293,7 @@
     </row>
     <row r="4" spans="1:41" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2249,7 +2312,9 @@
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
@@ -2282,14 +2347,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
@@ -2298,32 +2363,32 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="X6" s="26"/>
       <c r="Y6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
@@ -2342,32 +2407,42 @@
     <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
+      <c r="O7" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
-      <c r="U7" s="4"/>
+      <c r="U7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="V7" s="4"/>
       <c r="W7" s="23"/>
       <c r="X7" s="24"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="25"/>
       <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="AB7" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="AC7" s="25"/>
       <c r="AD7" s="25"/>
       <c r="AE7" s="25"/>
@@ -2385,19 +2460,25 @@
     <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+      <c r="O8" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
@@ -2428,19 +2509,25 @@
     <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="25" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="O9" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
@@ -2471,19 +2558,25 @@
     <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="O10" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
@@ -2496,7 +2589,9 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="AB10" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="AC10" s="25"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
@@ -2514,12 +2609,16 @@
     <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -3242,57 +3341,91 @@
       <c r="AN27" s="25"/>
       <c r="AO27" s="25"/>
     </row>
+    <row r="28" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="198">
+  <mergeCells count="206">
+    <mergeCell ref="AL2:AO4"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="P3:AC3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="P4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="P2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AO6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AO7"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="O6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AO6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL2:AO4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="P3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="P2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AO7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="W8:X8"/>
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB8:AO8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AO9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:N10"/>
@@ -3301,12 +3434,20 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AB10:AO10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="W8:X8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="R9:T9"/>
-    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AO9"/>
     <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="AB11:AO11"/>
     <mergeCell ref="A12:B12"/>
@@ -3322,7 +3463,7 @@
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
-    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W11:X11"/>
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AO13"/>
     <mergeCell ref="A14:B14"/>
@@ -3338,7 +3479,7 @@
     <mergeCell ref="H13:N13"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
-    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W13:X13"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="AB15:AO15"/>
     <mergeCell ref="A16:B16"/>
@@ -3354,7 +3495,7 @@
     <mergeCell ref="H15:N15"/>
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="R15:T15"/>
-    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="AB17:AO17"/>
     <mergeCell ref="A18:B18"/>
@@ -3370,7 +3511,7 @@
     <mergeCell ref="H17:N17"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W17:X17"/>
     <mergeCell ref="Y19:AA19"/>
     <mergeCell ref="AB19:AO19"/>
     <mergeCell ref="A20:B20"/>
@@ -3386,7 +3527,7 @@
     <mergeCell ref="H19:N19"/>
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W19:X19"/>
     <mergeCell ref="Y21:AA21"/>
     <mergeCell ref="AB21:AO21"/>
     <mergeCell ref="A22:B22"/>
@@ -3402,7 +3543,7 @@
     <mergeCell ref="H21:N21"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="R21:T21"/>
-    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W21:X21"/>
     <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="AB23:AO23"/>
     <mergeCell ref="A24:B24"/>
@@ -3418,15 +3559,7 @@
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="O23:Q23"/>
     <mergeCell ref="R23:T23"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AO27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="AB25:AO25"/>
     <mergeCell ref="A26:B26"/>
@@ -3442,6 +3575,23 @@
     <mergeCell ref="H25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AO27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AO28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="W27:X27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3449,11 +3599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D5A40F-76FF-4A9B-949C-77007F835516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F6FDD-A6F6-4B3A-AFFC-9D9E91E51DF6}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="H16" sqref="H16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -3683,14 +3833,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
@@ -3699,32 +3849,32 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="X6" s="26"/>
       <c r="Y6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
@@ -4850,11 +5000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F6FDD-A6F6-4B3A-AFFC-9D9E91E51DF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF30859C-1C08-4086-8697-9A16EEBA7947}">
   <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:N16"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -5084,14 +5234,14 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
@@ -5100,32 +5250,32 @@
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="X6" s="26"/>
       <c r="Y6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
@@ -6251,11 +6401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF30859C-1C08-4086-8697-9A16EEBA7947}">
-  <dimension ref="A1:AO27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6B699-02F6-4043-9E81-234A36B792F3}">
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -6319,1407 +6469,6 @@
       <c r="AO1" s="13"/>
     </row>
     <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="str">
-        <f>案件番号</f>
-        <v>EDU001</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="str" cm="1">
-        <f t="array" ref="F2">案件名</f>
-        <v>TUBAGアプリクローン</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10" t="str">
-        <f>ドキュメント名</f>
-        <v>テーブル定義書</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10" t="str">
-        <f>作成担当者</f>
-        <v>五嶋</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="16" t="str">
-        <f>作成年月日</f>
-        <v>2023/10/02</v>
-      </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="6"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="6"/>
-    </row>
-    <row r="4" spans="1:41" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="str">
-        <f>プロジェクト名</f>
-        <v>TUBAGアプリクローン(Android)</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="8"/>
-    </row>
-    <row r="6" spans="1:41" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-    </row>
-    <row r="7" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-    </row>
-    <row r="8" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-    </row>
-    <row r="9" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-    </row>
-    <row r="10" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-    </row>
-    <row r="11" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-    </row>
-    <row r="12" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-    </row>
-    <row r="13" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-    </row>
-    <row r="14" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-    </row>
-    <row r="15" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-    </row>
-    <row r="16" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-    </row>
-    <row r="17" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25"/>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-    </row>
-    <row r="18" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AJ18" s="25"/>
-      <c r="AK18" s="25"/>
-      <c r="AL18" s="25"/>
-      <c r="AM18" s="25"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="25"/>
-    </row>
-    <row r="19" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-    </row>
-    <row r="20" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25"/>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-    </row>
-    <row r="21" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25"/>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-    </row>
-    <row r="22" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-    </row>
-    <row r="23" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-    </row>
-    <row r="24" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-    </row>
-    <row r="25" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-    </row>
-    <row r="26" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-    </row>
-    <row r="27" spans="1:41" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="198">
-    <mergeCell ref="AL2:AO4"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="P3:AC3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="P4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="P2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AO6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AO7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AO8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AO9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AO10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AO11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AO12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AO13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AO14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AO15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AO16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AO17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AO18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AO19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AO20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AO21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AO22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AO23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AO24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AO25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AO26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AO27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="W26:X26"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6B699-02F6-4043-9E81-234A36B792F3}">
-  <dimension ref="A1:AO4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="3.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="13"/>
-    </row>
-    <row r="2" spans="1:41" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -7740,7 +6489,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
